--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\MAPPPREOJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F2A9CE-CA2E-4FBB-B59D-833E6BCF110F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F443A1E-EF76-43DC-8EFE-0BDA406E0FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Intro" sheetId="7" r:id="rId1"/>
-    <sheet name="Product No 1 or Sprint No 1" sheetId="4" r:id="rId2"/>
+    <sheet name="Product No 1 or Sprint No 1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,26 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="156">
-  <si>
-    <t>Revision History</t>
-  </si>
-  <si>
-    <t>Revision</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>James Porter
-G00327095</t>
-  </si>
-  <si>
-    <t>Test Cases For Upload</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="150">
   <si>
     <t>Purpose:</t>
   </si>
@@ -508,7 +488,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,13 +535,6 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -577,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -677,92 +650,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -802,69 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1237,223 +1066,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D2C086-47E5-46F7-807F-5159CA9DDACA}">
-  <dimension ref="B4:E33"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="74.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -1480,12 +1092,12 @@
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="35"/>
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="14"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="1"/>
@@ -1495,16 +1107,16 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="38"/>
+      <c r="A2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="17"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1514,40 +1126,40 @@
     </row>
     <row r="3" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1558,28 +1170,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -1592,28 +1204,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="8"/>
@@ -1626,28 +1238,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1660,28 +1272,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="9"/>
@@ -1694,28 +1306,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="9"/>
@@ -1728,28 +1340,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
@@ -1762,28 +1374,28 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -1796,28 +1408,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
@@ -1830,28 +1442,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1864,28 +1476,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
@@ -1898,28 +1510,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
@@ -1932,28 +1544,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
@@ -1966,28 +1578,28 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
@@ -2000,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
@@ -2034,28 +1646,28 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
@@ -2068,28 +1680,28 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
@@ -2102,28 +1714,28 @@
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
@@ -2136,28 +1748,28 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -2170,28 +1782,28 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -2204,28 +1816,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -2238,28 +1850,28 @@
         <v>1</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="J24" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -2272,28 +1884,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -2306,28 +1918,28 @@
         <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -2340,28 +1952,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -2398,12 +2010,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E2350B245ADDA4C84D2A3BA33EA6D8A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b0bc2f3e4b9707839aaedfbf644b07ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58c82af2-401d-4f66-8dc6-99e554edfb71" xmlns:ns4="2c622248-e68d-4026-ba1d-127c9fad49d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eaa20e7cc55c96622bf4ccb54c373ca3" ns3:_="" ns4:_="">
     <xsd:import namespace="58c82af2-401d-4f66-8dc6-99e554edfb71"/>
@@ -2620,6 +2226,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA35423-B04C-452A-B7E9-1D1C97DE04ED}">
   <ds:schemaRefs>
@@ -2629,15 +2241,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787BAD58-35B4-4E16-B7E4-7B790AB56F1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C2D1233-2051-4AE1-B129-9409877E5F1A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2654,4 +2257,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787BAD58-35B4-4E16-B7E4-7B790AB56F1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>